--- a/attendance_log.xlsx
+++ b/attendance_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15:15:07</t>
+          <t>16:09:51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,33 +501,10 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15:15:13</t>
+          <t>16:09:52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Jhanak</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2310990618</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-04-13</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15:15:19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
